--- a/app/0100_Base/UIControl/state/doc/DbgMenuControl.xlsx
+++ b/app/0100_Base/UIControl/state/doc/DbgMenuControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0EBED7-91FA-40E1-85C1-6B168850B833}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91764FE5-795A-4E68-82AB-1C105F349C16}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="72">
   <si>
     <t>thumbnail</t>
   </si>
@@ -549,7 +549,10 @@
     <t>MC</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/08/03 14:01:42
+    <t>set_event();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/08/03 14:47:22
 ; * pssgEditor version : 0.8.0.26aef6b743ebec1f242ef0bfbac88333d42a172f
 psggfile=@@@
 DbgMenuControl.psgg
@@ -575,7 +578,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":13,"y":37}},{"Key":"S_END","Value":{"x":1102,"y":70}},{"Key":"S_CREATE_PANEL","Value":{"x":400,"y":23}},{"Key":"S_INIT","Value":{"x":209,"y":22}},{"Key":"S_BUT01","Value":{"x":338,"y":368}},{"Key":"S_BUT02","Value":{"x":540,"y":382}},{"Key":"S_BUT03","Value":{"x":751,"y":386}},{"Key":"S_BUT04","Value":{"x":1009,"y":360}},{"Key":"S_BUT05","Value":{"x":1246,"y":344}},{"Key":"S_BUT06","Value":{"x":338,"y":372}},{"Key":"____altnative_state____obsolete","Value":{"x":1009,"y":360}},{"Key":"S_0001","Value":{"x":80,"y":281}},{"Key":"S_0002","Value":{"x":560,"y":740}},{"Key":"S_LOOPCHECK","Value":{"x":653,"y":354}}]},{"Key":"\/obsolete\/","Value":[{"Key":"S_END","Value":{"x":50,"y":100}},{"Key":"S_BUT01","Value":{"x":312,"y":100}},{"Key":"S_BUT02","Value":{"x":574,"y":100}},{"Key":"S_BUT03","Value":{"x":836,"y":100}},{"Key":"S_BUT04","Value":{"x":1098,"y":100}},{"Key":"S_BUT05","Value":{"x":1360,"y":100}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":13,"y":37}},{"Key":"S_END","Value":{"x":1102,"y":70}},{"Key":"S_CREATE_PANEL","Value":{"x":400,"y":23}},{"Key":"S_INIT","Value":{"x":209,"y":22}},{"Key":"S_BUT06","Value":{"x":338,"y":372}},{"Key":"S_0001","Value":{"x":80,"y":281}},{"Key":"S_LOOPCHECK","Value":{"x":653,"y":354}}]},{"Key":"\/obsolete\/","Value":[{"Key":"S_END","Value":{"x":50,"y":100}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -1650,6 +1653,9 @@
       <c r="F23" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="M23" s="11" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="1:16" s="11" customFormat="1">
       <c r="A24" s="10"/>
@@ -1788,7 +1794,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
